--- a/Iteration2/risk_list_tpl.xlsx
+++ b/Iteration2/risk_list_tpl.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="2/7EWtQ+3LDP0j2Kfq+UHfyrlabE8+4A9x//5DwrzUA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Oumv4/3rCDFBJs2tN+gxxttyD8xd4sVSNsKUL5lvCrE="/>
     </ext>
   </extLst>
 </workbook>
@@ -64,14 +64,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh/eqOPMqWVbVfukX8pB5v9wNvFRg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhxg2VnHiOBqQhlZ57UkL06Vo/g4w=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Hungerger Risk List</t>
   </si>
@@ -115,6 +115,9 @@
     <t>Technical</t>
   </si>
   <si>
+    <t>Tarık</t>
+  </si>
+  <si>
     <t>Implement multi-layered security measures. Employ a Zero Trust model. Conduct regular employee training on data security. Backup data regularly and ensure a rapid disaster recovery plan is in place.</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>Business</t>
   </si>
   <si>
+    <t>Merve</t>
+  </si>
+  <si>
     <t>Consult with legal experts familiar with these regulations. Regularly audit and update data collection, storage, and sharing practices.</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
   </si>
   <si>
     <t>Risk that the platform may not engage users as expected, leading to a lower-than-anticipated number of active users and recipe contributions.</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
   <si>
     <t>Conduct user surveys and feedback sessions to understand their needs and preferences. Iterate on UI/UX based on feedback.</t>
@@ -166,6 +175,9 @@
     <t>Potential challenges in scaling the system to accommodate a growing number of users and data volume, which could affect performance.</t>
   </si>
   <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
     <t xml:space="preserve">Use cloud-based solutions that allow scaling based on demand. Regularly review infrastructure needs and optimize database queries. </t>
   </si>
   <si>
@@ -173,6 +185,9 @@
   </si>
   <si>
     <t>Risk that the system may not consistently achieve sub-second response times, leading to user dissatisfaction.</t>
+  </si>
+  <si>
+    <t>Aslı</t>
   </si>
   <si>
     <t>Monitor system performance metrics regularly. Optimize code and database queries. Run regular stress and load tests.</t>
@@ -256,7 +271,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -293,12 +307,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -316,25 +330,28 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,26 +686,28 @@
         <f t="shared" ref="H3:H13" si="1">+F3*G3</f>
         <v>0.75</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="7">
@@ -698,13 +717,13 @@
         <v>45233.0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7">
         <v>5.0</v>
@@ -716,26 +735,28 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="7">
@@ -745,13 +766,13 @@
         <v>45233.0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7">
         <v>5.0</v>
@@ -763,26 +784,28 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="7">
@@ -792,13 +815,13 @@
         <v>45233.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7">
         <v>4.0</v>
@@ -810,26 +833,28 @@
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="7">
@@ -839,13 +864,13 @@
         <v>45233.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7">
         <v>4.0</v>
@@ -857,26 +882,28 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="7">
@@ -886,10 +913,10 @@
         <v>45233.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -904,26 +931,28 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="7">
@@ -933,10 +962,10 @@
         <v>45233.0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -951,26 +980,28 @@
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="7">
@@ -980,13 +1011,13 @@
         <v>45233.0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7">
         <v>3.0</v>
@@ -998,26 +1029,28 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="7">
@@ -1026,14 +1059,14 @@
       <c r="B11" s="8">
         <v>45233.0</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>38</v>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7">
         <v>3.0</v>
@@ -1045,26 +1078,28 @@
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="7">
@@ -1074,10 +1109,10 @@
         <v>45233.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1092,26 +1127,28 @@
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="7">
@@ -1121,13 +1158,13 @@
         <v>45233.0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7">
         <v>2.0</v>
@@ -1139,26 +1176,28 @@
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2"/>
